--- a/OOXML/test/ExampleFiles/xlsx2xlsb/simple2.xlsx
+++ b/OOXML/test/ExampleFiles/xlsx2xlsb/simple2.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr allowRefreshQuery="0" autoCompressPictures="1" backupFile="0" checkCompatibility="0" codeName="0" date1904="0" dateCompatibility="1" defaultThemeVersion="0" filterPrivacy="0" hidePivotFieldList="0" promptedSolutions="0" publishItems="0" refreshAllConnections="0" showBorderUnselectedTables="0" showInkAnnotation="1" showObjects="all" showPivotChartFilter="0" updateLinks="always"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Лист1" sheetId="1" state="visible" r:id="rId4"/>
+    <sheet name="Лист2" sheetId="2" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="Slicer_it">#N/A</definedName>
+    <definedName name="Slicer_it" hidden="0">#N/A</definedName>
   </definedNames>
-  <calcPr calcId="0" calcMode="autoNoTable" fullCalcOnLoad="0" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.001" fullPrecision="1" calcCompleted="0" calcOnSave="1" concurrentCalc="1" concurrentManualCount="1" forceFullCalc="0"/>
+  <calcPr/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId1"/>
   </pivotCaches>
   <extLst>
-    <ext uri="{46BE6895-7355-4a93-B00E-2C351335B9C9}">
-      <x15:slicerCaches>
-        <x14:slicerCache r:id="rId4"/>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{46BE6895-7355-4a93-B00E-2C351335B9C9}">
+      <x15:slicerCaches xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <x14:slicerCache r:id="rId2"/>
       </x15:slicerCaches>
     </ext>
   </extLst>
@@ -32,11 +32,25 @@
     <author>tc={5A175D1A-2D6E-3CC8-2227-22732FCB5686}</author>
   </authors>
   <commentList>
-    <comment ref="D4" authorId="0" xr:uid="{00000000-0000-0000-0000-000000000000}">
+    <comment ref="D4" authorId="0" xr:uid="{5A175D1A-2D6E-3CC8-2227-22732FCB5686}">
       <text>
-        <t xml:space="preserve">Vik:
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t>Vik:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">
 test comment
 </t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -68,107 +82,44 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3">
+  <fonts count="1">
     <font>
-      <i val="0"/>
-      <strike val="0"/>
-      <condense val="0"/>
-      <extend val="0"/>
-      <outline val="0"/>
-      <shadow val="0"/>
-      <u val="none"/>
-      <vertAlign val="baseline"/>
       <sz val="11.000000"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="0"/>
-      <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i val="0"/>
-      <strike val="0"/>
-      <condense val="0"/>
-      <extend val="0"/>
-      <outline val="0"/>
-      <shadow val="0"/>
-      <u val="none"/>
-      <vertAlign val="baseline"/>
-      <sz val="9.000000"/>
-      <color auto="1"/>
-      <name val="Tahoma"/>
-      <family val="0"/>
-      <charset val="0"/>
-      <scheme val="none"/>
-    </font>
-    <font>
-      <i val="0"/>
-      <strike val="0"/>
-      <condense val="0"/>
-      <extend val="0"/>
-      <outline val="0"/>
-      <shadow val="0"/>
-      <u val="none"/>
-      <vertAlign val="baseline"/>
-      <sz val="9.000000"/>
-      <color auto="1"/>
-      <name val="Tahoma"/>
-      <family val="0"/>
-      <charset val="0"/>
-      <scheme val="none"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="64"/>
-        <bgColor indexed="65"/>
-      </patternFill>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor indexed="64"/>
-        <bgColor indexed="65"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
     <border>
-      <left style="none">
-        <color auto="1"/>
-      </left>
-      <right style="none">
-        <color auto="1"/>
-      </right>
-      <top style="none">
-        <color auto="1"/>
-      </top>
-      <bottom style="none">
-        <color auto="1"/>
-      </bottom>
-      <diagonal style="none">
-        <color auto="1"/>
-      </diagonal>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" quotePrefix="0" pivotButton="0">
-      <alignment horizontal="general" indent="0" justifyLastLine="0" readingOrder="0" relativeIndent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
-      <protection hidden="0" locked="1"/>
-    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" quotePrefix="0" pivotButton="0">
-      <alignment horizontal="general" indent="0" justifyLastLine="0" readingOrder="0" relativeIndent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
-      <protection hidden="0" locked="1"/>
-    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43E5-95BD-54CBDDF9020C}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
@@ -182,16 +133,16 @@
     <xdr:ext cx="1828800" cy="2523742"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
-        <xdr:graphicFrame macro="">
+        <xdr:graphicFrame>
           <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="294272694" name="it"/>
+            <xdr:cNvPr id="294272694" name=""/>
             <xdr:cNvGraphicFramePr>
               <a:graphicFrameLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
             </xdr:cNvGraphicFramePr>
           </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="0" y="0"/>
-            <a:ext cx="0" cy="0"/>
+          <xdr:xfrm rot="0" flipH="0" flipV="0">
+            <a:off x="6420823" y="777451"/>
+            <a:ext cx="1828800" cy="2523743"/>
           </xdr:xfrm>
           <a:graphic>
             <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
@@ -251,28 +202,23 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" r:id="rId1" refreshedDateIso="0.000000" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="2">
-  <cacheSource connectionId="0" type="worksheet">
-    <worksheetSource sheet="Лист1" ref="C6:D8"/>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="2">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="C6:D8" sheet="Лист1"/>
   </cacheSource>
   <cacheFields count="2">
-    <cacheField name="1" mappingCount="0" numFmtId="-1">
-      <sharedItems count="0" containsBlank="0" containsDate="0" containsInteger="1" containsMixedTypes="0" containsNonDate="1" containsNumber="1" containsSemiMixedTypes="0" containsString="0" longText="0" minValue="8" maxValue="178"/>
+    <cacheField name="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="8" maxValue="178"/>
     </cacheField>
-    <cacheField name="4" mappingCount="0" numFmtId="-1">
-      <sharedItems count="0" containsBlank="0" containsDate="0" containsInteger="1" containsMixedTypes="0" containsNonDate="1" containsNumber="1" containsSemiMixedTypes="0" containsString="0" longText="0" minValue="9" maxValue="87"/>
+    <cacheField name="4">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="9" maxValue="87"/>
     </cacheField>
   </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition pivotCacheId="0"/>
-    </ext>
-  </extLst>
 </pivotCacheDefinition>
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" count="2">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="2">
   <r>
     <n v="8"/>
     <n v="9"/>
@@ -285,52 +231,342 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="PivotTable1" cacheId="0" dataCaption="Значения" applyAlignmentFormats="0" applyBorderFormats="0" applyFontFormats="0" applyNumberFormats="0" applyPatternFormats="0" applyWidthHeightFormats="1" autoFormatId="1" createdVersion="4" immersive="0" indent="0" itemPrintTitles="1" minRefreshableVersion="3" multipleFieldFilters="0" outline="1" outlineData="1" updatedVersion="4" useAutoFormatting="1" visualTotals="0">
-  <location colPageCount="0" firstDataCol="0" firstDataRow="2" firstHeaderRow="1" ref="A3:B5" rowPageCount="0"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B5" firstHeaderRow="1" firstDataRow="2" firstDataCol="0"/>
   <pivotFields count="2">
-    <pivotField dataField="1" dataSourceSort="0" includeNewItemsInFilter="1" showAll="0" axis="axisValues" sortType="manual" numFmtId="0"/>
-    <pivotField dataField="1" dataSourceSort="0" includeNewItemsInFilter="1" showAll="0" axis="axisValues" sortType="manual" numFmtId="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
   </pivotFields>
   <rowItems count="1">
-    <i i="0" r="0" t="data"/>
+    <i/>
   </rowItems>
   <colFields count="1">
     <field x="-2"/>
   </colFields>
   <colItems count="2">
-    <i i="0" r="0" t="data">
-      <x v="0"/>
+    <i>
+      <x/>
     </i>
-    <i i="1" r="0" t="data">
+    <i i="1">
       <x v="1"/>
     </i>
   </colItems>
   <dataFields count="2">
-    <dataField name="Sum of 1" baseField="0" baseItem="0" fld="0" numFmtId="0"/>
-    <dataField name="Sum of 4" baseField="0" baseItem="0" fld="1" numFmtId="0"/>
+    <dataField name="Sum of 1" fld="0" baseField="0" baseItem="0"/>
+    <dataField name="Sum of 4" fld="1" baseField="0" baseItem="0"/>
   </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showColHeaders="1" showColStripes="0" showLastColumn="1" showRowHeaders="1" showRowStripes="0"/>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
 </pivotTableDefinition>
 </file>
 
-<file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="UTF-8" standalone="yes"?><slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x xr10" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" name="Slicer_it" sourceName="it"><extLst><ext uri="{2F2917AC-EB37-4324-AD4E-5DD8C200BD13}"><x15:tableSlicerCache tableId="1" column="1" sortOrder="ascending" customListSort="1" crossFilter="showItemsWithDataAtTop"></x15:tableSlicerCache></ext></extLst></slicerCacheDefinition>
+<file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_it" xr10:uid="{E69683C1-E062-A9E6-F35A-4CFB7BCB314B}" sourceName="it">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{2F2917AC-EB37-4324-AD4E-5DD8C200BD13}">
+      <x15:tableSlicerCache tableId="1" column="1" sortOrder="ascending" customListSort="1" crossFilter="showItemsWithDataAtTop"/>
+    </ext>
+  </extLst>
+</slicerCacheDefinition>
 </file>
 
 <file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
-  <slicer name="it" xr10:uid="it" cache="Slicer_it" caption="it" startItem="0" columnCount="1" showCaption="1" level="0" lockedPosition="0" rowHeight="241300"/>
+  <slicer name="it" xr10:uid="{982EC51D-07DE-91A4-1DAB-70F24D5E7F96}" cache="Slicer_it" caption="it" startItem="0" columnCount="1" showCaption="1" level="0" lockedPosition="0" rowHeight="241300"/>
 </slicers>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" name="Таблица1" displayName="Таблица1" ref="B1:C4" connectionId="0" tableType="worksheet" totalsRowShown="1" insertRow="0" insertRowShift="0" published="0">
-  <autoFilter ref="B1:C4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" displayName="Таблица1" ref="$B$1:$C$4">
+  <autoFilter ref="$B$1:$C$4"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="it" totalsRowFunction="none" queryTableFieldId="0"/>
-    <tableColumn id="2" name="ut" totalsRowFunction="none" queryTableFieldId="0"/>
+    <tableColumn id="1" name="it"/>
+    <tableColumn id="2" name="ut"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
+</file>
+
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Angsana New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Cordia New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -341,7 +577,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="000000"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -551,140 +787,145 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
-  <sheetPr syncHorizontal="0" syncVertical="0" transitionEvaluation="0" transitionEntry="0" published="1" filterMode="0" enableFormatConditionsCalculation="0">
-    <tabColor auto="1"/>
-    <outlinePr applyStyles="0" summaryBelow="1" summaryRight="1" showOutlineSymbols="1"/>
-    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
-  </sheetPr>
   <sheetViews>
-    <sheetView windowProtection="0" showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showRuler="1" showOutlineSymbols="1" defaultGridColor="1" showWhiteSpace="0" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8" defaultRowHeight="14.4"/>
-  <cols>
-    <col bestFit="1" collapsed="0" customWidth="0" hidden="0" min="1" max="1" outlineLevel="0" phonetic="0" style="0" width="9.36328125"/>
-    <col bestFit="1" collapsed="0" customWidth="0" hidden="0" min="2" max="2" outlineLevel="0" phonetic="0" style="0" width="8.54296875"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="3" ht="14.5">
+    <row r="1" ht="14.25">
+      <c r="A1">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25">
+      <c r="A2">
+        <v>13</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25">
       <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
         <v>3</v>
       </c>
     </row>
-    <row r="4" ht="14.5">
-      <c r="A4" t="s">
+    <row r="4" ht="14.25">
+      <c r="B4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25">
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="5" ht="14.5">
-      <c r="A5">
-        <v>186</v>
-      </c>
-      <c r="B5">
-        <v>96</v>
+    <row r="7" ht="14.25">
+      <c r="C7">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25">
+      <c r="C8">
+        <v>178</v>
+      </c>
+      <c r="D8">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="0" autoFilter="0" content="1" deleteColumns="0" deleteRows="0" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertHyperlinks="0" insertRows="0" objects="1" pivotTables="0" scenarios="1" selectLockedCells="1" selectUnlockedCells="1" sheet="0" sort="0"/>
-  <printOptions headings="0" gridLines="0" gridLinesSet="0" horizontalCentered="0" verticalCentered="0"/>
+  <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1" r:id=""/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
-  <sheetPr syncHorizontal="0" syncVertical="0" transitionEvaluation="0" transitionEntry="0" published="1" filterMode="0" enableFormatConditionsCalculation="0">
-    <tabColor auto="1"/>
-    <outlinePr applyStyles="0" summaryBelow="1" summaryRight="1" showOutlineSymbols="1"/>
-    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView windowProtection="0" showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showRuler="1" showOutlineSymbols="1" defaultGridColor="1" showWhiteSpace="0" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8" defaultRowHeight="14.4"/>
-  <sheetData>
-    <row r="1" ht="14.5">
-      <c r="A1">
-        <v>12</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" ht="14.5">
-      <c r="A2">
-        <v>13</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" ht="14.5">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" ht="14.5">
-      <c r="B4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" ht="14.5">
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" ht="14.5">
-      <c r="C7">
-        <v>8</v>
-      </c>
-      <c r="D7">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" ht="14.5">
-      <c r="C8">
-        <v>178</v>
-      </c>
-      <c r="D8">
-        <v>87</v>
-      </c>
-    </row>
-  </sheetData>
-  <sheetProtection password="0" autoFilter="0" content="1" deleteColumns="0" deleteRows="0" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertHyperlinks="0" insertRows="0" objects="1" pivotTables="0" scenarios="1" selectLockedCells="1" selectUnlockedCells="1" sheet="0" sort="0"/>
-  <printOptions headings="0" gridLines="0" gridLinesSet="0" horizontalCentered="0" verticalCentered="0"/>
-  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1" r:id=""/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+  <drawing r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
   <tableParts count="1">
-    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
   <extLst>
-    <ext uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{3A4CF648-6AED-40f4-86FF-DC5316D8AED3}">
       <x14:slicerList xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <x14:slicer r:id="rId5"/>
+        <x14:slicer r:id="rId6"/>
       </x14:slicerList>
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col bestFit="1" min="1" max="1" width="9.3828125"/>
+    <col bestFit="1" min="2" max="2" width="8.5234375"/>
+  </cols>
+  <sheetData>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>186</v>
+      </c>
+      <c r="B5">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6"/>
+    <row r="7"/>
+    <row r="8"/>
+    <row r="9"/>
+    <row r="10"/>
+    <row r="11"/>
+    <row r="12"/>
+    <row r="13"/>
+    <row r="14"/>
+    <row r="15"/>
+    <row r="16"/>
+    <row r="17"/>
+    <row r="18"/>
+    <row r="19"/>
+    <row r="20"/>
+  </sheetData>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/OOXML/test/ExampleFiles/xlsx2xlsb/simple2.xlsx
+++ b/OOXML/test/ExampleFiles/xlsx2xlsb/simple2.xlsx
@@ -1,25 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repos\test\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CED48A37-8F3A-4142-8919-29356E977CEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" state="visible" r:id="rId4"/>
-    <sheet name="Лист2" sheetId="2" state="visible" r:id="rId5"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="Диаграмма1" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="Slicer_it" hidden="0">#N/A</definedName>
+    <definedName name="Slicer_it">#N/A</definedName>
   </definedNames>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId1"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{46BE6895-7355-4a93-B00E-2C351335B9C9}">
       <x15:slicerCaches xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <x14:slicerCache r:id="rId2"/>
+        <x14:slicerCache r:id="rId5"/>
       </x15:slicerCaches>
     </ext>
   </extLst>
@@ -32,7 +43,7 @@
     <author>tc={5A175D1A-2D6E-3CC8-2227-22732FCB5686}</author>
   </authors>
   <commentList>
-    <comment ref="D4" authorId="0" xr:uid="{5A175D1A-2D6E-3CC8-2227-22732FCB5686}">
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{5A175D1A-2D6E-3CC8-2227-22732FCB5686}">
       <text>
         <r>
           <rPr>
@@ -72,22 +83,31 @@
     <t>Значения</t>
   </si>
   <si>
-    <t xml:space="preserve">Sum из 1</t>
+    <t>Sum из 1</t>
   </si>
   <si>
-    <t xml:space="preserve">Sum из 4</t>
+    <t>Sum из 4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="11.000000"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Tahoma"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Tahoma"/>
     </font>
   </fonts>
   <fills count="2">
@@ -100,21 +120,21 @@
   </fills>
   <borders count="1">
     <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -122,27 +142,906 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$C$6:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>178</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DA33-4587-95ED-DD111C4C7E64}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$D$6:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>87</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DA33-4587-95ED-DD111C4C7E64}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="468160760"/>
+        <c:axId val="468159776"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="468160760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="468159776"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="468159776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="468160760"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{7594C40F-4427-4BA3-838D-0896F4C470FA}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="117" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="6420823" y="777451"/>
     <xdr:ext cx="1828800" cy="2523742"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
-        <xdr:graphicFrame>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+      <mc:Choice Requires="sle15">
+        <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="294272694" name=""/>
+            <xdr:cNvPr id="294272694" name="it">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B63E8A11}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvGraphicFramePr>
-              <a:graphicFrameLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:graphicFrameLocks/>
             </xdr:cNvGraphicFramePr>
           </xdr:nvGraphicFramePr>
-          <xdr:xfrm rot="0" flipH="0" flipV="0">
-            <a:off x="6420823" y="777451"/>
-            <a:ext cx="1828800" cy="2523743"/>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
           </xdr:xfrm>
           <a:graphic>
             <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
@@ -151,7 +1050,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback xmlns="" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -195,6 +1094,39 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8667479" cy="6290299"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E74CB75-E45D-4326-A7E1-0C2345EAA361}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <person displayName="Vik" id="{130CD2EF-0FB4-9052-E3C1-FB1B5B4B5FE4}" userId="Vik" providerId="Teamlab"/>
@@ -202,7 +1134,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="2">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedDate="0" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="2" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="C6:D8" sheet="Лист1"/>
   </cacheSource>
@@ -214,6 +1146,11 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="9" maxValue="87"/>
     </cacheField>
   </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
 </pivotCacheDefinition>
 </file>
 
@@ -231,7 +1168,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B5" firstHeaderRow="1" firstDataRow="2" firstDataCol="0"/>
   <pivotFields count="2">
     <pivotField dataField="1" showAll="0"/>
@@ -256,321 +1193,43 @@
     <dataField name="Sum of 4" fld="1" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_it" xr10:uid="{E69683C1-E062-A9E6-F35A-4CFB7BCB314B}" sourceName="it">
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{2F2917AC-EB37-4324-AD4E-5DD8C200BD13}">
-      <x15:tableSlicerCache tableId="1" column="1" sortOrder="ascending" customListSort="1" crossFilter="showItemsWithDataAtTop"/>
-    </ext>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{2F2917AC-EB37-4324-AD4E-5DD8C200BD13}">
+      <x15:tableSlicerCache tableId="1" column="1"/>
+    </x:ext>
   </extLst>
 </slicerCacheDefinition>
 </file>
 
 <file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
-  <slicer name="it" xr10:uid="{982EC51D-07DE-91A4-1DAB-70F24D5E7F96}" cache="Slicer_it" caption="it" startItem="0" columnCount="1" showCaption="1" level="0" lockedPosition="0" rowHeight="241300"/>
+  <slicer name="it" xr10:uid="{982EC51D-07DE-91A4-1DAB-70F24D5E7F96}" cache="Slicer_it" caption="it" rowHeight="241300"/>
 </slicers>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" displayName="Таблица1" ref="$B$1:$C$4">
-  <autoFilter ref="$B$1:$C$4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Таблица1" displayName="Таблица1" ref="B1:C4">
+  <autoFilter ref="B1:C4" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="it"/>
-    <tableColumn id="2" name="ut"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="it"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="ut"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Angsana New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Cordia New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="New Office">
       <a:dk1>
@@ -773,6 +1432,7 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
@@ -786,15 +1446,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" ht="14.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>12</v>
       </c>
@@ -805,7 +1466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="14.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>13</v>
       </c>
@@ -816,7 +1477,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" ht="14.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -824,12 +1485,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" ht="14.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B4">
         <v>6</v>
       </c>
     </row>
-    <row r="6" ht="14.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C6">
         <v>1</v>
       </c>
@@ -837,7 +1498,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" ht="14.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C7">
         <v>8</v>
       </c>
@@ -845,7 +1506,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" ht="14.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C8">
         <v>178</v>
       </c>
@@ -854,19 +1515,17 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
-  <drawing r:id="rId3"/>
-  <legacyDrawing r:id="rId4"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{3A4CF648-6AED-40f4-86FF-DC5316D8AED3}">
       <x14:slicerList xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <x14:slicer r:id="rId6"/>
+        <x14:slicer r:id="rId4"/>
       </x14:slicerList>
     </ext>
   </extLst>
@@ -874,24 +1533,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A3:B5"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col bestFit="1" min="1" max="1" width="9.3828125"/>
-    <col bestFit="1" min="2" max="2" width="8.5234375"/>
+    <col min="1" max="1" width="9.36328125" bestFit="1"/>
+    <col min="2" max="2" width="8.54296875" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -899,7 +1557,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>186</v>
       </c>
@@ -907,25 +1565,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="6"/>
-    <row r="7"/>
-    <row r="8"/>
-    <row r="9"/>
-    <row r="10"/>
-    <row r="11"/>
-    <row r="12"/>
-    <row r="13"/>
-    <row r="14"/>
-    <row r="15"/>
-    <row r="16"/>
-    <row r="17"/>
-    <row r="18"/>
-    <row r="19"/>
-    <row r="20"/>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>